--- a/state_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
+++ b/state_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U244"/>
+  <dimension ref="A1:U265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08520341503362</v>
+        <v>1.99081831556715</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.87849</v>
+        <v>5.755</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>1.8</v>
       </c>
       <c r="M2" t="n">
-        <v>3.945</v>
+        <v>3.445</v>
       </c>
       <c r="N2" t="n">
-        <v>5.758</v>
+        <v>5.40603</v>
       </c>
       <c r="O2" t="n">
         <v>1850793</v>
@@ -651,7 +651,7 @@
         <v>0.008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0124890249475845</v>
+        <v>0.0124980446753954</v>
       </c>
       <c r="H3" t="n">
         <v>0.132</v>
@@ -732,7 +732,7 @@
         <v>0.008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0124890249475845</v>
+        <v>0.0124980446753954</v>
       </c>
       <c r="H4" t="n">
         <v>0.132</v>
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>28.678757465073</v>
+        <v>28.6971221403933</v>
       </c>
       <c r="H5" t="n">
         <v>345</v>
@@ -898,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>28.678757465073</v>
+        <v>28.6971221403933</v>
       </c>
       <c r="H6" t="n">
         <v>345</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>28.678757465073</v>
+        <v>28.6971221403933</v>
       </c>
       <c r="H7" t="n">
         <v>345</v>
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>28.678757465073</v>
+        <v>28.6971221403933</v>
       </c>
       <c r="H8" t="n">
         <v>345</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00129</v>
+        <v>0.00128</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0162492155953242</v>
+        <v>0.0162514026842744</v>
       </c>
       <c r="H9" t="n">
         <v>0.465439159035782</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00129</v>
+        <v>0.00128</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0162492155953242</v>
+        <v>0.0162514026842744</v>
       </c>
       <c r="H10" t="n">
         <v>0.465439159035782</v>
@@ -1311,7 +1311,7 @@
         <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0828079785697409</v>
+        <v>0.0829341038452744</v>
       </c>
       <c r="H11" t="n">
         <v>0.655</v>
@@ -1322,10 +1322,10 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.028</v>
+        <v>0.02775</v>
       </c>
       <c r="M11" t="n">
-        <v>0.13165</v>
+        <v>0.13215</v>
       </c>
       <c r="N11" t="n">
         <v>0.171</v>
@@ -1388,7 +1388,7 @@
         <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0828079785697409</v>
+        <v>0.0829341038452744</v>
       </c>
       <c r="H12" t="n">
         <v>0.655</v>
@@ -1399,10 +1399,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.028</v>
+        <v>0.02775</v>
       </c>
       <c r="M12" t="n">
-        <v>0.13165</v>
+        <v>0.13215</v>
       </c>
       <c r="N12" t="n">
         <v>0.171</v>
@@ -1469,13 +1469,13 @@
         <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>2.45771999264307</v>
+        <v>2.29757126284706</v>
       </c>
       <c r="H13" t="n">
-        <v>7.16998802814271</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.98923</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1483,10 +1483,10 @@
         <v>2.55</v>
       </c>
       <c r="M13" t="n">
-        <v>4.81513</v>
+        <v>4.28912</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8688</v>
+        <v>5.49329</v>
       </c>
       <c r="O13" t="n">
         <v>1850793</v>
@@ -1550,7 +1550,7 @@
         <v>0.007</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0068049860765746</v>
+        <v>0.0068211314301121</v>
       </c>
       <c r="H14" t="n">
         <v>0.041</v>
@@ -1631,7 +1631,7 @@
         <v>0.007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0068049860765746</v>
+        <v>0.0068211314301121</v>
       </c>
       <c r="H15" t="n">
         <v>0.041</v>
@@ -1712,7 +1712,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>30.0142095457268</v>
+        <v>30.0154503102394</v>
       </c>
       <c r="H16" t="n">
         <v>345</v>
@@ -1797,7 +1797,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>30.0142095457268</v>
+        <v>30.0154503102394</v>
       </c>
       <c r="H17" t="n">
         <v>345</v>
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>30.0142095457268</v>
+        <v>30.0154503102394</v>
       </c>
       <c r="H18" t="n">
         <v>345</v>
@@ -1967,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>30.0142095457268</v>
+        <v>30.0154503102394</v>
       </c>
       <c r="H19" t="n">
         <v>345</v>
@@ -2052,7 +2052,7 @@
         <v>0.00178</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0050551721648013</v>
+        <v>0.005058178938468</v>
       </c>
       <c r="H20" t="n">
         <v>0.0285558718210039</v>
@@ -2133,7 +2133,7 @@
         <v>0.00178</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0050551721648013</v>
+        <v>0.005058178938468</v>
       </c>
       <c r="H21" t="n">
         <v>0.0285558718210039</v>
@@ -2210,13 +2210,13 @@
         <v>0.051</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0607428571428571</v>
+        <v>0.0608542857142857</v>
       </c>
       <c r="H22" t="n">
         <v>0.148</v>
       </c>
       <c r="I22" t="n">
-        <v>0.13625</v>
+        <v>0.13675</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
         <v>0.1026</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1181</v>
+        <v>0.11845</v>
       </c>
       <c r="O22" t="n">
         <v>1850793</v>
@@ -2287,13 +2287,13 @@
         <v>0.051</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0607428571428571</v>
+        <v>0.0608542857142857</v>
       </c>
       <c r="H23" t="n">
         <v>0.148</v>
       </c>
       <c r="I23" t="n">
-        <v>0.13625</v>
+        <v>0.13675</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
         <v>0.1026</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1181</v>
+        <v>0.11845</v>
       </c>
       <c r="O23" t="n">
         <v>1850793</v>
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.895</v>
+        <v>1.78378</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42665500546639</v>
+        <v>2.30306023081054</v>
       </c>
       <c r="H24" t="n">
-        <v>7.16998802814271</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>5.92464</v>
+        <v>5.59</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
         <v>2.55</v>
       </c>
       <c r="M24" t="n">
-        <v>4.60343</v>
+        <v>4.6</v>
       </c>
       <c r="N24" t="n">
-        <v>5.794</v>
+        <v>5.49776</v>
       </c>
       <c r="O24" t="n">
         <v>1850793</v>
@@ -2449,7 +2449,7 @@
         <v>0.006</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0060695372746347</v>
+        <v>0.0060887368940741</v>
       </c>
       <c r="H25" t="n">
         <v>0.041</v>
@@ -2530,7 +2530,7 @@
         <v>0.006</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0060695372746347</v>
+        <v>0.0060887368940741</v>
       </c>
       <c r="H26" t="n">
         <v>0.041</v>
@@ -2611,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>28.6488794489455</v>
+        <v>28.6498034225187</v>
       </c>
       <c r="H27" t="n">
         <v>345</v>
@@ -2696,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>28.6488794489455</v>
+        <v>28.6498034225187</v>
       </c>
       <c r="H28" t="n">
         <v>345</v>
@@ -2781,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>28.6488794489455</v>
+        <v>28.6498034225187</v>
       </c>
       <c r="H29" t="n">
         <v>345</v>
@@ -2866,7 +2866,7 @@
         <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>28.6488794489455</v>
+        <v>28.6498034225187</v>
       </c>
       <c r="H30" t="n">
         <v>345</v>
@@ -2951,7 +2951,7 @@
         <v>0.0028</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005283795185173</v>
+        <v>0.0052883960955439</v>
       </c>
       <c r="H31" t="n">
         <v>0.0285558718210039</v>
@@ -3032,7 +3032,7 @@
         <v>0.0028</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005283795185173</v>
+        <v>0.0052883960955439</v>
       </c>
       <c r="H32" t="n">
         <v>0.0285558718210039</v>
@@ -3113,7 +3113,7 @@
         <v>0.037</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0457537373193097</v>
+        <v>0.0457731769215998</v>
       </c>
       <c r="H33" t="n">
         <v>0.139</v>
@@ -3194,7 +3194,7 @@
         <v>0.037</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0457537373193097</v>
+        <v>0.0457731769215998</v>
       </c>
       <c r="H34" t="n">
         <v>0.139</v>
@@ -3271,13 +3271,13 @@
         <v>0.049</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0581914893617021</v>
+        <v>0.0582744680851064</v>
       </c>
       <c r="H35" t="n">
         <v>0.148</v>
       </c>
       <c r="I35" t="n">
-        <v>0.12245</v>
+        <v>0.12295</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -3348,13 +3348,13 @@
         <v>0.049</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0581914893617021</v>
+        <v>0.0582744680851064</v>
       </c>
       <c r="H36" t="n">
         <v>0.148</v>
       </c>
       <c r="I36" t="n">
-        <v>0.12245</v>
+        <v>0.12295</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
         <v>0.475</v>
       </c>
       <c r="G37" t="n">
-        <v>2.48511320754717</v>
+        <v>2.4881320754717</v>
       </c>
       <c r="H37" t="n">
         <v>17.5</v>
@@ -3440,7 +3440,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.135</v>
+        <v>0.16</v>
       </c>
       <c r="M37" t="n">
         <v>6.245</v>
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="G38" t="n">
-        <v>2.67633545485689</v>
+        <v>2.6763832458447</v>
       </c>
       <c r="H38" t="n">
-        <v>11.2756297766077</v>
+        <v>16.7164283657945</v>
       </c>
       <c r="I38" t="n">
-        <v>6.6125</v>
+        <v>6.375</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3524,10 +3524,10 @@
         <v>2.6</v>
       </c>
       <c r="M38" t="n">
-        <v>4.8807</v>
+        <v>4.63432</v>
       </c>
       <c r="N38" t="n">
-        <v>6.05</v>
+        <v>5.82</v>
       </c>
       <c r="O38" t="n">
         <v>1850793</v>
@@ -3591,7 +3591,7 @@
         <v>0.006</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0060633337376552</v>
+        <v>0.0060792257715209</v>
       </c>
       <c r="H39" t="n">
         <v>0.041</v>
@@ -3672,7 +3672,7 @@
         <v>0.006</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0060633337376552</v>
+        <v>0.0060792257715209</v>
       </c>
       <c r="H40" t="n">
         <v>0.041</v>
@@ -3753,7 +3753,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="n">
-        <v>43.923683628821</v>
+        <v>43.9244196755658</v>
       </c>
       <c r="H41" t="n">
         <v>767</v>
@@ -3838,7 +3838,7 @@
         <v>16</v>
       </c>
       <c r="G42" t="n">
-        <v>43.923683628821</v>
+        <v>43.9244196755658</v>
       </c>
       <c r="H42" t="n">
         <v>767</v>
@@ -3923,7 +3923,7 @@
         <v>16</v>
       </c>
       <c r="G43" t="n">
-        <v>43.923683628821</v>
+        <v>43.9244196755658</v>
       </c>
       <c r="H43" t="n">
         <v>767</v>
@@ -4008,7 +4008,7 @@
         <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>43.923683628821</v>
+        <v>43.9244196755658</v>
       </c>
       <c r="H44" t="n">
         <v>767</v>
@@ -4170,7 +4170,7 @@
         <v>0.00168</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0046582120197793</v>
+        <v>0.0046625053636313</v>
       </c>
       <c r="H46" t="n">
         <v>0.0285558718210039</v>
@@ -4251,7 +4251,7 @@
         <v>0.00168</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0046582120197793</v>
+        <v>0.0046625053636313</v>
       </c>
       <c r="H47" t="n">
         <v>0.0285558718210039</v>
@@ -4332,7 +4332,7 @@
         <v>0.037</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0422008403626754</v>
+        <v>0.0422156144604159</v>
       </c>
       <c r="H48" t="n">
         <v>0.139</v>
@@ -4413,7 +4413,7 @@
         <v>0.037</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0422008403626754</v>
+        <v>0.0422156144604159</v>
       </c>
       <c r="H49" t="n">
         <v>0.139</v>
@@ -4487,16 +4487,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.047</v>
+        <v>0.0474</v>
       </c>
       <c r="G50" t="n">
-        <v>0.053864406779661</v>
+        <v>0.0539271186440678</v>
       </c>
       <c r="H50" t="n">
         <v>0.148</v>
       </c>
       <c r="I50" t="n">
-        <v>0.11765</v>
+        <v>0.11792</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4504,7 +4504,7 @@
         <v>0.031</v>
       </c>
       <c r="M50" t="n">
-        <v>0.09241000000000001</v>
+        <v>0.09267</v>
       </c>
       <c r="N50" t="n">
         <v>0.11456</v>
@@ -4564,16 +4564,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.047</v>
+        <v>0.0474</v>
       </c>
       <c r="G51" t="n">
-        <v>0.053864406779661</v>
+        <v>0.0539271186440678</v>
       </c>
       <c r="H51" t="n">
         <v>0.148</v>
       </c>
       <c r="I51" t="n">
-        <v>0.11765</v>
+        <v>0.11792</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4581,7 +4581,7 @@
         <v>0.031</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09241000000000001</v>
+        <v>0.09267</v>
       </c>
       <c r="N51" t="n">
         <v>0.11456</v>
@@ -4798,7 +4798,7 @@
         <v>0.013</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0281398048431282</v>
+        <v>0.0281323518946851</v>
       </c>
       <c r="H54" t="n">
         <v>0.326</v>
@@ -4875,7 +4875,7 @@
         <v>0.013</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0281398048431282</v>
+        <v>0.0281323518946851</v>
       </c>
       <c r="H55" t="n">
         <v>0.326</v>
@@ -5033,7 +5033,7 @@
         <v>0.8</v>
       </c>
       <c r="G57" t="n">
-        <v>2.68761818181818</v>
+        <v>2.69052727272727</v>
       </c>
       <c r="H57" t="n">
         <v>17.5</v>
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.21867</v>
+        <v>2.05</v>
       </c>
       <c r="G58" t="n">
-        <v>2.86246371888392</v>
+        <v>2.92327703285689</v>
       </c>
       <c r="H58" t="n">
-        <v>11.2756297766077</v>
+        <v>16.7164283657945</v>
       </c>
       <c r="I58" t="n">
-        <v>6.635</v>
+        <v>6.47</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5128,10 +5128,10 @@
         <v>3.2</v>
       </c>
       <c r="M58" t="n">
-        <v>5.262</v>
+        <v>5.19796</v>
       </c>
       <c r="N58" t="n">
-        <v>6.302</v>
+        <v>6.068</v>
       </c>
       <c r="O58" t="n">
         <v>1850793</v>
@@ -5195,7 +5195,7 @@
         <v>0.006</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0059365532775819</v>
+        <v>0.0059506706299063</v>
       </c>
       <c r="H59" t="n">
         <v>0.019</v>
@@ -5276,7 +5276,7 @@
         <v>0.006</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0059365532775819</v>
+        <v>0.0059506706299063</v>
       </c>
       <c r="H60" t="n">
         <v>0.019</v>
@@ -5357,7 +5357,7 @@
         <v>18</v>
       </c>
       <c r="G61" t="n">
-        <v>50.923683628821</v>
+        <v>50.9244196755658</v>
       </c>
       <c r="H61" t="n">
         <v>767</v>
@@ -5442,7 +5442,7 @@
         <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>50.923683628821</v>
+        <v>50.9244196755658</v>
       </c>
       <c r="H62" t="n">
         <v>767</v>
@@ -5527,7 +5527,7 @@
         <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>50.923683628821</v>
+        <v>50.9244196755658</v>
       </c>
       <c r="H63" t="n">
         <v>767</v>
@@ -5612,7 +5612,7 @@
         <v>18</v>
       </c>
       <c r="G64" t="n">
-        <v>50.923683628821</v>
+        <v>50.9244196755658</v>
       </c>
       <c r="H64" t="n">
         <v>767</v>
@@ -5774,7 +5774,7 @@
         <v>0.00194</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0049286286521775</v>
+        <v>0.0049325082705142</v>
       </c>
       <c r="H66" t="n">
         <v>0.0285558718210039</v>
@@ -5855,7 +5855,7 @@
         <v>0.00194</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0049286286521775</v>
+        <v>0.0049325082705142</v>
       </c>
       <c r="H67" t="n">
         <v>0.0285558718210039</v>
@@ -5936,7 +5936,7 @@
         <v>0.037</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0403922375954876</v>
+        <v>0.0404047580173016</v>
       </c>
       <c r="H68" t="n">
         <v>0.139</v>
@@ -5947,7 +5947,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.00864</v>
+        <v>0.00873</v>
       </c>
       <c r="M68" t="n">
         <v>0.06909</v>
@@ -6017,7 +6017,7 @@
         <v>0.037</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0403922375954876</v>
+        <v>0.0404047580173016</v>
       </c>
       <c r="H69" t="n">
         <v>0.139</v>
@@ -6028,7 +6028,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.00864</v>
+        <v>0.00873</v>
       </c>
       <c r="M69" t="n">
         <v>0.06909</v>
@@ -6168,10 +6168,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.047</v>
+        <v>0.0474</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0504067796610169</v>
+        <v>0.0504440677966102</v>
       </c>
       <c r="H71" t="n">
         <v>0.148</v>
@@ -6182,10 +6182,10 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.0245</v>
+        <v>0.0244</v>
       </c>
       <c r="M71" t="n">
-        <v>0.08035</v>
+        <v>0.0803</v>
       </c>
       <c r="N71" t="n">
         <v>0.10668</v>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.047</v>
+        <v>0.0474</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0504067796610169</v>
+        <v>0.0504440677966102</v>
       </c>
       <c r="H72" t="n">
         <v>0.148</v>
@@ -6259,10 +6259,10 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.0245</v>
+        <v>0.0244</v>
       </c>
       <c r="M72" t="n">
-        <v>0.08035</v>
+        <v>0.0803</v>
       </c>
       <c r="N72" t="n">
         <v>0.10668</v>
@@ -6479,7 +6479,7 @@
         <v>0.013</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0309703133177045</v>
+        <v>0.0309628603692614</v>
       </c>
       <c r="H75" t="n">
         <v>0.326</v>
@@ -6556,7 +6556,7 @@
         <v>0.013</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0309703133177045</v>
+        <v>0.0309628603692614</v>
       </c>
       <c r="H76" t="n">
         <v>0.326</v>
@@ -6795,24 +6795,24 @@
         <v>2.55</v>
       </c>
       <c r="G79" t="n">
-        <v>3.27591530618515</v>
+        <v>3.41704847403383</v>
       </c>
       <c r="H79" t="n">
-        <v>11.2756297766077</v>
+        <v>16.7164283657945</v>
       </c>
       <c r="I79" t="n">
-        <v>8.244809999999999</v>
+        <v>10.71</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>4.54765</v>
+        <v>4.42734</v>
       </c>
       <c r="M79" t="n">
-        <v>6.064</v>
+        <v>5.698</v>
       </c>
       <c r="N79" t="n">
-        <v>7.18019</v>
+        <v>6.837</v>
       </c>
       <c r="O79" t="n">
         <v>1850793</v>
@@ -6876,7 +6876,7 @@
         <v>0.006</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0060693394271075</v>
+        <v>0.0060802629414625</v>
       </c>
       <c r="H80" t="n">
         <v>0.019</v>
@@ -6957,7 +6957,7 @@
         <v>0.006</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0060693394271075</v>
+        <v>0.0060802629414625</v>
       </c>
       <c r="H81" t="n">
         <v>0.019</v>
@@ -7452,10 +7452,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.00171</v>
+        <v>0.00174</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0062995851361629</v>
+        <v>0.0063075074669659</v>
       </c>
       <c r="H87" t="n">
         <v>0.08</v>
@@ -7466,7 +7466,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="M87" t="n">
         <v>0.00988</v>
@@ -7533,10 +7533,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.00171</v>
+        <v>0.00174</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0062995851361629</v>
+        <v>0.0063075074669659</v>
       </c>
       <c r="H88" t="n">
         <v>0.08</v>
@@ -7547,7 +7547,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="M88" t="n">
         <v>0.00988</v>
@@ -7617,7 +7617,7 @@
         <v>0.0335</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0352668568067939</v>
+        <v>0.0352753679333111</v>
       </c>
       <c r="H89" t="n">
         <v>0.11</v>
@@ -7628,7 +7628,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0.00378</v>
+        <v>0.00388</v>
       </c>
       <c r="M89" t="n">
         <v>0.0593</v>
@@ -7698,7 +7698,7 @@
         <v>0.0335</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0352668568067939</v>
+        <v>0.0352753679333111</v>
       </c>
       <c r="H90" t="n">
         <v>0.11</v>
@@ -7709,7 +7709,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00378</v>
+        <v>0.00388</v>
       </c>
       <c r="M90" t="n">
         <v>0.0593</v>
@@ -7852,7 +7852,7 @@
         <v>0.043</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0456426140354101</v>
+        <v>0.0456524585082425</v>
       </c>
       <c r="H92" t="n">
         <v>0.115</v>
@@ -7863,13 +7863,13 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>0.014</v>
+        <v>0.0139</v>
       </c>
       <c r="M92" t="n">
         <v>0.0752</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0988</v>
+        <v>0.09873</v>
       </c>
       <c r="O92" t="n">
         <v>1850793</v>
@@ -7929,7 +7929,7 @@
         <v>0.043</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0456426140354101</v>
+        <v>0.0456524585082425</v>
       </c>
       <c r="H93" t="n">
         <v>0.115</v>
@@ -7940,13 +7940,13 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.014</v>
+        <v>0.0139</v>
       </c>
       <c r="M93" t="n">
         <v>0.0752</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0988</v>
+        <v>0.09873</v>
       </c>
       <c r="O93" t="n">
         <v>1850793</v>
@@ -8160,7 +8160,7 @@
         <v>0.011</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0239294758999252</v>
+        <v>0.0239193996682687</v>
       </c>
       <c r="H96" t="n">
         <v>0.258</v>
@@ -8237,7 +8237,7 @@
         <v>0.011</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0239294758999252</v>
+        <v>0.0239193996682687</v>
       </c>
       <c r="H97" t="n">
         <v>0.258</v>
@@ -8476,13 +8476,13 @@
         <v>2.8</v>
       </c>
       <c r="G100" t="n">
-        <v>3.63965305201575</v>
+        <v>3.82320997653473</v>
       </c>
       <c r="H100" t="n">
-        <v>11.2756297766077</v>
+        <v>16.7164283657945</v>
       </c>
       <c r="I100" t="n">
-        <v>8.778040000000001</v>
+        <v>10.985</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -8493,7 +8493,7 @@
         <v>6.2</v>
       </c>
       <c r="N100" t="n">
-        <v>7.68758</v>
+        <v>7.872</v>
       </c>
       <c r="O100" t="n">
         <v>1850793</v>
@@ -8557,7 +8557,7 @@
         <v>0.006</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0062827201012055</v>
+        <v>0.006291397330466</v>
       </c>
       <c r="H101" t="n">
         <v>0.019</v>
@@ -8638,7 +8638,7 @@
         <v>0.006</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0062827201012055</v>
+        <v>0.006291397330466</v>
       </c>
       <c r="H102" t="n">
         <v>0.019</v>
@@ -9133,10 +9133,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.00161</v>
+        <v>0.00166</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0053648296243449</v>
+        <v>0.0053871818282282</v>
       </c>
       <c r="H108" t="n">
         <v>0.08</v>
@@ -9147,10 +9147,10 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00161</v>
+        <v>0.00166</v>
       </c>
       <c r="M108" t="n">
-        <v>0.00771</v>
+        <v>0.00783</v>
       </c>
       <c r="N108" t="n">
         <v>0.01282</v>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.00161</v>
+        <v>0.00166</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0053648296243449</v>
+        <v>0.0053871818282282</v>
       </c>
       <c r="H109" t="n">
         <v>0.08</v>
@@ -9228,10 +9228,10 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.00161</v>
+        <v>0.00166</v>
       </c>
       <c r="M109" t="n">
-        <v>0.00771</v>
+        <v>0.00783</v>
       </c>
       <c r="N109" t="n">
         <v>0.01282</v>
@@ -9298,7 +9298,7 @@
         <v>0.026</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0305936863037505</v>
+        <v>0.030608687484291</v>
       </c>
       <c r="H110" t="n">
         <v>0.11</v>
@@ -9309,7 +9309,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00382</v>
+        <v>0.00401</v>
       </c>
       <c r="M110" t="n">
         <v>0.0509</v>
@@ -9379,7 +9379,7 @@
         <v>0.026</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0305936863037505</v>
+        <v>0.030608687484291</v>
       </c>
       <c r="H111" t="n">
         <v>0.11</v>
@@ -9390,7 +9390,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00382</v>
+        <v>0.00401</v>
       </c>
       <c r="M111" t="n">
         <v>0.0509</v>
@@ -9533,18 +9533,18 @@
         <v>0.037</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0397913064151161</v>
+        <v>0.03981083626</v>
       </c>
       <c r="H113" t="n">
         <v>0.115</v>
       </c>
       <c r="I113" t="n">
-        <v>0.101</v>
+        <v>0.10095</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.01206</v>
+        <v>0.01221</v>
       </c>
       <c r="M113" t="n">
         <v>0.064</v>
@@ -9610,18 +9610,18 @@
         <v>0.037</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0397913064151161</v>
+        <v>0.03981083626</v>
       </c>
       <c r="H114" t="n">
         <v>0.115</v>
       </c>
       <c r="I114" t="n">
-        <v>0.101</v>
+        <v>0.10095</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.01206</v>
+        <v>0.01221</v>
       </c>
       <c r="M114" t="n">
         <v>0.064</v>
@@ -9687,7 +9687,7 @@
         <v>0.096</v>
       </c>
       <c r="G115" t="n">
-        <v>0.100409187734303</v>
+        <v>0.100414589909245</v>
       </c>
       <c r="H115" t="n">
         <v>0.236</v>
@@ -9764,7 +9764,7 @@
         <v>0.096</v>
       </c>
       <c r="G116" t="n">
-        <v>0.100409187734303</v>
+        <v>0.100414589909245</v>
       </c>
       <c r="H116" t="n">
         <v>0.236</v>
@@ -9841,7 +9841,7 @@
         <v>0.01</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0216642140586619</v>
+        <v>0.0216561478119269</v>
       </c>
       <c r="H117" t="n">
         <v>0.258</v>
@@ -9918,7 +9918,7 @@
         <v>0.01</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0216642140586619</v>
+        <v>0.0216561478119269</v>
       </c>
       <c r="H118" t="n">
         <v>0.258</v>
@@ -10157,13 +10157,13 @@
         <v>3.1</v>
       </c>
       <c r="G121" t="n">
-        <v>3.70074541177266</v>
+        <v>3.89819059303496</v>
       </c>
       <c r="H121" t="n">
-        <v>11.2756297766077</v>
+        <v>16.7164283657945</v>
       </c>
       <c r="I121" t="n">
-        <v>8.914999999999999</v>
+        <v>11.17475</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10174,7 +10174,7 @@
         <v>6.5</v>
       </c>
       <c r="N121" t="n">
-        <v>7.87332</v>
+        <v>8.128</v>
       </c>
       <c r="O121" t="n">
         <v>1850793</v>
@@ -10238,7 +10238,7 @@
         <v>0.006</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0067119825608954</v>
+        <v>0.0067157824342298</v>
       </c>
       <c r="H122" t="n">
         <v>0.019</v>
@@ -10319,7 +10319,7 @@
         <v>0.006</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0067119825608954</v>
+        <v>0.0067157824342298</v>
       </c>
       <c r="H123" t="n">
         <v>0.019</v>
@@ -10814,10 +10814,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00171</v>
+        <v>0.00176</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0046311600310397</v>
+        <v>0.004667796467963</v>
       </c>
       <c r="H129" t="n">
         <v>0.08</v>
@@ -10828,10 +10828,10 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00164</v>
+        <v>0.00169</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0062</v>
+        <v>0.00631</v>
       </c>
       <c r="N129" t="n">
         <v>0.01172</v>
@@ -10895,10 +10895,10 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.00171</v>
+        <v>0.00176</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0046311600310397</v>
+        <v>0.004667796467963</v>
       </c>
       <c r="H130" t="n">
         <v>0.08</v>
@@ -10909,10 +10909,10 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.00164</v>
+        <v>0.00169</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0062</v>
+        <v>0.00631</v>
       </c>
       <c r="N130" t="n">
         <v>0.01172</v>
@@ -10979,7 +10979,7 @@
         <v>0.024</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0326936863037505</v>
+        <v>0.032708687484291</v>
       </c>
       <c r="H131" t="n">
         <v>0.117</v>
@@ -10990,7 +10990,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.00382</v>
+        <v>0.00401</v>
       </c>
       <c r="M131" t="n">
         <v>0.0585</v>
@@ -11060,7 +11060,7 @@
         <v>0.024</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0326936863037505</v>
+        <v>0.032708687484291</v>
       </c>
       <c r="H132" t="n">
         <v>0.117</v>
@@ -11071,7 +11071,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.00382</v>
+        <v>0.00401</v>
       </c>
       <c r="M132" t="n">
         <v>0.0585</v>
@@ -11211,24 +11211,24 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.0405</v>
+        <v>0.04045</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0409413064151161</v>
+        <v>0.04096083626</v>
       </c>
       <c r="H134" t="n">
         <v>0.125</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1025</v>
+        <v>0.10245</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>0.01206</v>
+        <v>0.01221</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0677</v>
+        <v>0.06764000000000001</v>
       </c>
       <c r="N134" t="n">
         <v>0.092</v>
@@ -11288,24 +11288,24 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.0405</v>
+        <v>0.04045</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0409413064151161</v>
+        <v>0.04096083626</v>
       </c>
       <c r="H135" t="n">
         <v>0.125</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1025</v>
+        <v>0.10245</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>0.01206</v>
+        <v>0.01221</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0677</v>
+        <v>0.06764000000000001</v>
       </c>
       <c r="N135" t="n">
         <v>0.092</v>
@@ -11368,7 +11368,7 @@
         <v>0.1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.104042521067636</v>
+        <v>0.104047923242578</v>
       </c>
       <c r="H136" t="n">
         <v>0.236</v>
@@ -11445,7 +11445,7 @@
         <v>0.1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.104042521067636</v>
+        <v>0.104047923242578</v>
       </c>
       <c r="H137" t="n">
         <v>0.236</v>
@@ -11522,7 +11522,7 @@
         <v>0.01</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0245047753740117</v>
+        <v>0.024499143948955</v>
       </c>
       <c r="H138" t="n">
         <v>0.383</v>
@@ -11599,7 +11599,7 @@
         <v>0.01</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0245047753740117</v>
+        <v>0.024499143948955</v>
       </c>
       <c r="H139" t="n">
         <v>0.383</v>
@@ -11838,13 +11838,13 @@
         <v>2.85</v>
       </c>
       <c r="G142" t="n">
-        <v>3.24522698750526</v>
+        <v>3.3334356394358</v>
       </c>
       <c r="H142" t="n">
-        <v>11.1</v>
+        <v>12.5949106929184</v>
       </c>
       <c r="I142" t="n">
-        <v>8.404809999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -11919,7 +11919,7 @@
         <v>0.006</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0069396393769013</v>
+        <v>0.0069434405973805</v>
       </c>
       <c r="H143" t="n">
         <v>0.019</v>
@@ -12000,7 +12000,7 @@
         <v>0.006</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0069396393769013</v>
+        <v>0.0069434405973805</v>
       </c>
       <c r="H144" t="n">
         <v>0.019</v>
@@ -12495,10 +12495,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.00191</v>
+        <v>0.00197</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0054185744543369</v>
+        <v>0.0054862558571229</v>
       </c>
       <c r="H150" t="n">
         <v>0.08</v>
@@ -12509,10 +12509,10 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00197</v>
+        <v>0.00204</v>
       </c>
       <c r="M150" t="n">
-        <v>0.00662</v>
+        <v>0.00683</v>
       </c>
       <c r="N150" t="n">
         <v>0.01318</v>
@@ -12576,10 +12576,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.00191</v>
+        <v>0.00197</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0054185744543369</v>
+        <v>0.0054862558571229</v>
       </c>
       <c r="H151" t="n">
         <v>0.08</v>
@@ -12590,10 +12590,10 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.00197</v>
+        <v>0.00204</v>
       </c>
       <c r="M151" t="n">
-        <v>0.00662</v>
+        <v>0.00683</v>
       </c>
       <c r="N151" t="n">
         <v>0.01318</v>
@@ -12660,7 +12660,7 @@
         <v>0.032</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0407203529704172</v>
+        <v>0.0407353541509577</v>
       </c>
       <c r="H152" t="n">
         <v>0.2</v>
@@ -12741,7 +12741,7 @@
         <v>0.032</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0407203529704172</v>
+        <v>0.0407353541509577</v>
       </c>
       <c r="H153" t="n">
         <v>0.2</v>
@@ -12895,7 +12895,7 @@
         <v>0.045</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0489746397484494</v>
+        <v>0.0489975029266667</v>
       </c>
       <c r="H155" t="n">
         <v>0.205</v>
@@ -12906,10 +12906,10 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>0.0145</v>
+        <v>0.01435</v>
       </c>
       <c r="M155" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.08352999999999999</v>
       </c>
       <c r="N155" t="n">
         <v>0.105</v>
@@ -12972,7 +12972,7 @@
         <v>0.045</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0489746397484494</v>
+        <v>0.0489975029266667</v>
       </c>
       <c r="H156" t="n">
         <v>0.205</v>
@@ -12983,10 +12983,10 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.0145</v>
+        <v>0.01435</v>
       </c>
       <c r="M156" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.08352999999999999</v>
       </c>
       <c r="N156" t="n">
         <v>0.105</v>
@@ -13049,7 +13049,7 @@
         <v>0.1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.112875854400969</v>
+        <v>0.112881256575911</v>
       </c>
       <c r="H157" t="n">
         <v>0.34</v>
@@ -13126,7 +13126,7 @@
         <v>0.1</v>
       </c>
       <c r="G158" t="n">
-        <v>0.112875854400969</v>
+        <v>0.112881256575911</v>
       </c>
       <c r="H158" t="n">
         <v>0.34</v>
@@ -13203,7 +13203,7 @@
         <v>0.0115</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0398381087073451</v>
+        <v>0.0398324772822883</v>
       </c>
       <c r="H159" t="n">
         <v>0.732</v>
@@ -13280,7 +13280,7 @@
         <v>0.0115</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0398381087073451</v>
+        <v>0.0398324772822883</v>
       </c>
       <c r="H160" t="n">
         <v>0.732</v>
@@ -13519,13 +13519,13 @@
         <v>2.45</v>
       </c>
       <c r="G163" t="n">
-        <v>3.02001721923563</v>
+        <v>3.10144059024843</v>
       </c>
       <c r="H163" t="n">
-        <v>11.1</v>
+        <v>12.5949106929184</v>
       </c>
       <c r="I163" t="n">
-        <v>8.244809999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -13600,7 +13600,7 @@
         <v>0.006</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0065896393769013</v>
+        <v>0.0065934405973805</v>
       </c>
       <c r="H164" t="n">
         <v>0.017</v>
@@ -13681,7 +13681,7 @@
         <v>0.006</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0065896393769013</v>
+        <v>0.0065934405973805</v>
       </c>
       <c r="H165" t="n">
         <v>0.017</v>
@@ -14176,10 +14176,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.0024</v>
+        <v>0.00248</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0059455752602269</v>
+        <v>0.0060651146578881</v>
       </c>
       <c r="H171" t="n">
         <v>0.08</v>
@@ -14190,13 +14190,13 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.00236</v>
+        <v>0.00244</v>
       </c>
       <c r="M171" t="n">
         <v>0.00697</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01249</v>
+        <v>0.013</v>
       </c>
       <c r="O171" t="n">
         <v>1850793</v>
@@ -14257,10 +14257,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.0024</v>
+        <v>0.00248</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0059455752602269</v>
+        <v>0.0060651146578881</v>
       </c>
       <c r="H172" t="n">
         <v>0.08</v>
@@ -14271,13 +14271,13 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>0.00236</v>
+        <v>0.00244</v>
       </c>
       <c r="M172" t="n">
         <v>0.00697</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01249</v>
+        <v>0.013</v>
       </c>
       <c r="O172" t="n">
         <v>1850793</v>
@@ -14341,7 +14341,7 @@
         <v>0.0385</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0453520196370838</v>
+        <v>0.0453670208176243</v>
       </c>
       <c r="H173" t="n">
         <v>0.2</v>
@@ -14422,7 +14422,7 @@
         <v>0.0385</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0453520196370838</v>
+        <v>0.0453670208176243</v>
       </c>
       <c r="H174" t="n">
         <v>0.2</v>
@@ -14576,7 +14576,7 @@
         <v>0.045</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0536579730817827</v>
+        <v>0.0536725029266667</v>
       </c>
       <c r="H176" t="n">
         <v>0.205</v>
@@ -14653,7 +14653,7 @@
         <v>0.045</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0536579730817827</v>
+        <v>0.0536725029266667</v>
       </c>
       <c r="H177" t="n">
         <v>0.205</v>
@@ -14730,7 +14730,7 @@
         <v>0.11</v>
       </c>
       <c r="G178" t="n">
-        <v>0.118009187734303</v>
+        <v>0.118014589909245</v>
       </c>
       <c r="H178" t="n">
         <v>0.34</v>
@@ -14807,7 +14807,7 @@
         <v>0.11</v>
       </c>
       <c r="G179" t="n">
-        <v>0.118009187734303</v>
+        <v>0.118014589909245</v>
       </c>
       <c r="H179" t="n">
         <v>0.34</v>
@@ -14884,7 +14884,7 @@
         <v>0.01</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0421214420406784</v>
+        <v>0.0421158106156216</v>
       </c>
       <c r="H180" t="n">
         <v>0.732</v>
@@ -14961,7 +14961,7 @@
         <v>0.01</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0421214420406784</v>
+        <v>0.0421158106156216</v>
       </c>
       <c r="H181" t="n">
         <v>0.732</v>
@@ -15281,7 +15281,7 @@
         <v>0.006</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0060311663448106</v>
+        <v>0.0060344646819656</v>
       </c>
       <c r="H185" t="n">
         <v>0.017</v>
@@ -15362,7 +15362,7 @@
         <v>0.006</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0060311663448106</v>
+        <v>0.0060344646819656</v>
       </c>
       <c r="H186" t="n">
         <v>0.017</v>
@@ -15443,7 +15443,7 @@
         <v>25</v>
       </c>
       <c r="G187" t="n">
-        <v>116.748319247195</v>
+        <v>116.74954600221</v>
       </c>
       <c r="H187" t="n">
         <v>1700</v>
@@ -15528,7 +15528,7 @@
         <v>25</v>
       </c>
       <c r="G188" t="n">
-        <v>116.748319247195</v>
+        <v>116.74954600221</v>
       </c>
       <c r="H188" t="n">
         <v>1700</v>
@@ -15613,7 +15613,7 @@
         <v>25</v>
       </c>
       <c r="G189" t="n">
-        <v>116.748319247195</v>
+        <v>116.74954600221</v>
       </c>
       <c r="H189" t="n">
         <v>1700</v>
@@ -15698,7 +15698,7 @@
         <v>25</v>
       </c>
       <c r="G190" t="n">
-        <v>116.748319247195</v>
+        <v>116.74954600221</v>
       </c>
       <c r="H190" t="n">
         <v>1700</v>
@@ -15857,27 +15857,27 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.00268</v>
+        <v>0.00269</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0040365008519191</v>
+        <v>0.0041605319239345</v>
       </c>
       <c r="H192" t="n">
-        <v>0.0270666468570494</v>
+        <v>0.0280722350571198</v>
       </c>
       <c r="I192" t="n">
-        <v>0.01156</v>
+        <v>0.01158</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="M192" t="n">
-        <v>0.00606</v>
+        <v>0.00631</v>
       </c>
       <c r="N192" t="n">
-        <v>0.00848</v>
+        <v>0.00882</v>
       </c>
       <c r="O192" t="n">
         <v>1850793</v>
@@ -15938,27 +15938,27 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.00268</v>
+        <v>0.00269</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0040365008519191</v>
+        <v>0.0041605319239345</v>
       </c>
       <c r="H193" t="n">
-        <v>0.0270666468570494</v>
+        <v>0.0280722350571198</v>
       </c>
       <c r="I193" t="n">
-        <v>0.01156</v>
+        <v>0.01158</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="M193" t="n">
-        <v>0.00606</v>
+        <v>0.00631</v>
       </c>
       <c r="N193" t="n">
-        <v>0.00848</v>
+        <v>0.00882</v>
       </c>
       <c r="O193" t="n">
         <v>1850793</v>
@@ -16022,7 +16022,7 @@
         <v>0.039</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0496544028782609</v>
+        <v>0.0496610029331999</v>
       </c>
       <c r="H194" t="n">
         <v>0.2</v>
@@ -16103,7 +16103,7 @@
         <v>0.039</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0496544028782609</v>
+        <v>0.0496610029331999</v>
       </c>
       <c r="H195" t="n">
         <v>0.2</v>
@@ -16257,7 +16257,7 @@
         <v>0.045</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0570495176742773</v>
+        <v>0.0570593672051771</v>
       </c>
       <c r="H197" t="n">
         <v>0.205</v>
@@ -16274,7 +16274,7 @@
         <v>0.0897</v>
       </c>
       <c r="N197" t="n">
-        <v>0.12192</v>
+        <v>0.12181</v>
       </c>
       <c r="O197" t="n">
         <v>1850793</v>
@@ -16334,7 +16334,7 @@
         <v>0.045</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0570495176742773</v>
+        <v>0.0570593672051771</v>
       </c>
       <c r="H198" t="n">
         <v>0.205</v>
@@ -16351,7 +16351,7 @@
         <v>0.0897</v>
       </c>
       <c r="N198" t="n">
-        <v>0.12192</v>
+        <v>0.12181</v>
       </c>
       <c r="O198" t="n">
         <v>1850793</v>
@@ -16411,7 +16411,7 @@
         <v>0.11</v>
       </c>
       <c r="G199" t="n">
-        <v>0.123195784136579</v>
+        <v>0.123201277873808</v>
       </c>
       <c r="H199" t="n">
         <v>0.34</v>
@@ -16488,7 +16488,7 @@
         <v>0.11</v>
       </c>
       <c r="G200" t="n">
-        <v>0.123195784136579</v>
+        <v>0.123201277873808</v>
       </c>
       <c r="H200" t="n">
         <v>0.34</v>
@@ -16565,7 +16565,7 @@
         <v>0.01</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0446146856642331</v>
+        <v>0.0446117528580948</v>
       </c>
       <c r="H201" t="n">
         <v>0.732</v>
@@ -16642,7 +16642,7 @@
         <v>0.01</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0446146856642331</v>
+        <v>0.0446117528580948</v>
       </c>
       <c r="H202" t="n">
         <v>0.732</v>
@@ -16881,10 +16881,10 @@
         <v>1.9</v>
       </c>
       <c r="G205" t="n">
-        <v>2.50276490487003</v>
+        <v>2.50265670217961</v>
       </c>
       <c r="H205" t="n">
-        <v>8.668245243501421</v>
+        <v>8.66283510898066</v>
       </c>
       <c r="I205" t="n">
         <v>6.5</v>
@@ -16962,7 +16962,7 @@
         <v>0.006</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0057792768539541</v>
+        <v>0.0057806324827233</v>
       </c>
       <c r="H206" t="n">
         <v>0.013</v>
@@ -17043,7 +17043,7 @@
         <v>0.006</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0057792768539541</v>
+        <v>0.0057806324827233</v>
       </c>
       <c r="H207" t="n">
         <v>0.013</v>
@@ -17124,7 +17124,7 @@
         <v>27.5</v>
       </c>
       <c r="G208" t="n">
-        <v>108.662112350643</v>
+        <v>108.663339105659</v>
       </c>
       <c r="H208" t="n">
         <v>810</v>
@@ -17209,7 +17209,7 @@
         <v>27.5</v>
       </c>
       <c r="G209" t="n">
-        <v>108.662112350643</v>
+        <v>108.663339105659</v>
       </c>
       <c r="H209" t="n">
         <v>810</v>
@@ -17294,7 +17294,7 @@
         <v>27.5</v>
       </c>
       <c r="G210" t="n">
-        <v>108.662112350643</v>
+        <v>108.663339105659</v>
       </c>
       <c r="H210" t="n">
         <v>810</v>
@@ -17379,7 +17379,7 @@
         <v>27.5</v>
       </c>
       <c r="G211" t="n">
-        <v>108.662112350643</v>
+        <v>108.663339105659</v>
       </c>
       <c r="H211" t="n">
         <v>810</v>
@@ -17538,24 +17538,24 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.00236</v>
+        <v>0.00244</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0036054399593411</v>
+        <v>0.0037104275161901</v>
       </c>
       <c r="H213" t="n">
-        <v>0.0270666468570494</v>
+        <v>0.0280722350571198</v>
       </c>
       <c r="I213" t="n">
-        <v>0.00882</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="M213" t="n">
-        <v>0.0054</v>
+        <v>0.00562</v>
       </c>
       <c r="N213" t="n">
         <v>0.00792</v>
@@ -17619,24 +17619,24 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0.00236</v>
+        <v>0.00244</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0036054399593411</v>
+        <v>0.0037104275161901</v>
       </c>
       <c r="H214" t="n">
-        <v>0.0270666468570494</v>
+        <v>0.0280722350571198</v>
       </c>
       <c r="I214" t="n">
-        <v>0.00882</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="M214" t="n">
-        <v>0.0054</v>
+        <v>0.00562</v>
       </c>
       <c r="N214" t="n">
         <v>0.00792</v>
@@ -17938,7 +17938,7 @@
         <v>0.052</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0591864406779661</v>
+        <v>0.0591610169491525</v>
       </c>
       <c r="H218" t="n">
         <v>0.205</v>
@@ -17949,13 +17949,13 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>0.028</v>
+        <v>0.02775</v>
       </c>
       <c r="M218" t="n">
         <v>0.0897</v>
       </c>
       <c r="N218" t="n">
-        <v>0.12192</v>
+        <v>0.12181</v>
       </c>
       <c r="O218" t="n">
         <v>1850793</v>
@@ -18015,7 +18015,7 @@
         <v>0.052</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0591864406779661</v>
+        <v>0.0591610169491525</v>
       </c>
       <c r="H219" t="n">
         <v>0.205</v>
@@ -18026,13 +18026,13 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>0.028</v>
+        <v>0.02775</v>
       </c>
       <c r="M219" t="n">
         <v>0.0897</v>
       </c>
       <c r="N219" t="n">
-        <v>0.12192</v>
+        <v>0.12181</v>
       </c>
       <c r="O219" t="n">
         <v>1850793</v>
@@ -18246,7 +18246,7 @@
         <v>0.01</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0464451941388094</v>
+        <v>0.0464422613326711</v>
       </c>
       <c r="H222" t="n">
         <v>0.732</v>
@@ -18323,7 +18323,7 @@
         <v>0.01</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0464451941388094</v>
+        <v>0.0464422613326711</v>
       </c>
       <c r="H223" t="n">
         <v>0.732</v>
@@ -18562,10 +18562,10 @@
         <v>1.8</v>
       </c>
       <c r="G226" t="n">
-        <v>2.37506622945921</v>
+        <v>2.37495581855063</v>
       </c>
       <c r="H226" t="n">
-        <v>8.668245243501421</v>
+        <v>8.66283510898066</v>
       </c>
       <c r="I226" t="n">
         <v>6.31</v>
@@ -18643,7 +18643,7 @@
         <v>0.006</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0061038618232912</v>
+        <v>0.0061044606150388</v>
       </c>
       <c r="H227" t="n">
         <v>0.013</v>
@@ -18724,7 +18724,7 @@
         <v>0.006</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0061038618232912</v>
+        <v>0.0061044606150388</v>
       </c>
       <c r="H228" t="n">
         <v>0.013</v>
@@ -18805,7 +18805,7 @@
         <v>30</v>
       </c>
       <c r="G229" t="n">
-        <v>97.3966528192766</v>
+        <v>97.397858781834</v>
       </c>
       <c r="H229" t="n">
         <v>810</v>
@@ -18890,7 +18890,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="n">
-        <v>97.3966528192766</v>
+        <v>97.397858781834</v>
       </c>
       <c r="H230" t="n">
         <v>810</v>
@@ -18975,7 +18975,7 @@
         <v>30</v>
       </c>
       <c r="G231" t="n">
-        <v>97.3966528192766</v>
+        <v>97.397858781834</v>
       </c>
       <c r="H231" t="n">
         <v>810</v>
@@ -19060,7 +19060,7 @@
         <v>30</v>
       </c>
       <c r="G232" t="n">
-        <v>97.3966528192766</v>
+        <v>97.397858781834</v>
       </c>
       <c r="H232" t="n">
         <v>810</v>
@@ -19219,24 +19219,24 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0037332948409781</v>
+        <v>0.0038188843967982</v>
       </c>
       <c r="H234" t="n">
-        <v>0.0270666468570494</v>
+        <v>0.0280722350571198</v>
       </c>
       <c r="I234" t="n">
-        <v>0.00882</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="M234" t="n">
-        <v>0.0054</v>
+        <v>0.00562</v>
       </c>
       <c r="N234" t="n">
         <v>0.00792</v>
@@ -19300,24 +19300,24 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0037332948409781</v>
+        <v>0.0038188843967982</v>
       </c>
       <c r="H235" t="n">
-        <v>0.0270666468570494</v>
+        <v>0.0280722350571198</v>
       </c>
       <c r="I235" t="n">
-        <v>0.00882</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="M235" t="n">
-        <v>0.0054</v>
+        <v>0.00562</v>
       </c>
       <c r="N235" t="n">
         <v>0.00792</v>
@@ -19619,7 +19619,7 @@
         <v>0.053</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0596610169491525</v>
+        <v>0.0596271186440678</v>
       </c>
       <c r="H239" t="n">
         <v>0.205</v>
@@ -19630,13 +19630,13 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>0.042</v>
+        <v>0.04175</v>
       </c>
       <c r="M239" t="n">
         <v>0.08334999999999999</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1149</v>
+        <v>0.11479</v>
       </c>
       <c r="O239" t="n">
         <v>1850793</v>
@@ -19696,7 +19696,7 @@
         <v>0.053</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0596610169491525</v>
+        <v>0.0596271186440678</v>
       </c>
       <c r="H240" t="n">
         <v>0.205</v>
@@ -19707,13 +19707,13 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
-        <v>0.042</v>
+        <v>0.04175</v>
       </c>
       <c r="M240" t="n">
         <v>0.08334999999999999</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1149</v>
+        <v>0.11479</v>
       </c>
       <c r="O240" t="n">
         <v>1850793</v>
@@ -20055,6 +20055,1687 @@
         </is>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.6275500000000001</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G246" t="n">
+        <v>4.20804007112566</v>
+      </c>
+      <c r="H246" t="n">
+        <v>41</v>
+      </c>
+      <c r="I246" t="n">
+        <v>12.325</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="M246" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="N246" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2.23038771976045</v>
+      </c>
+      <c r="H247" t="n">
+        <v>8.66283510898066</v>
+      </c>
+      <c r="I247" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>4.936</v>
+      </c>
+      <c r="N247" t="n">
+        <v>6.205</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.0062881355932203</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.01055</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.0062881355932203</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.01055</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>25</v>
+      </c>
+      <c r="G250" t="n">
+        <v>70.262265561495</v>
+      </c>
+      <c r="H250" t="n">
+        <v>740</v>
+      </c>
+      <c r="I250" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K250" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L250" t="n">
+        <v>66</v>
+      </c>
+      <c r="M250" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="N250" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>25</v>
+      </c>
+      <c r="G251" t="n">
+        <v>70.262265561495</v>
+      </c>
+      <c r="H251" t="n">
+        <v>740</v>
+      </c>
+      <c r="I251" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K251" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L251" t="n">
+        <v>66</v>
+      </c>
+      <c r="M251" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="N251" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>25</v>
+      </c>
+      <c r="G252" t="n">
+        <v>70.262265561495</v>
+      </c>
+      <c r="H252" t="n">
+        <v>740</v>
+      </c>
+      <c r="I252" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K252" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L252" t="n">
+        <v>66</v>
+      </c>
+      <c r="M252" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="N252" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>25</v>
+      </c>
+      <c r="G253" t="n">
+        <v>70.262265561495</v>
+      </c>
+      <c r="H253" t="n">
+        <v>740</v>
+      </c>
+      <c r="I253" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K253" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L253" t="n">
+        <v>66</v>
+      </c>
+      <c r="M253" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="N253" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>127</v>
+      </c>
+      <c r="G254" t="n">
+        <v>124.27</v>
+      </c>
+      <c r="H254" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="I254" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>127</v>
+      </c>
+      <c r="M254" t="n">
+        <v>131.1625</v>
+      </c>
+      <c r="N254" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.0042735193067626</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.06338010574905741</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>0.00366</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.00513</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.0042735193067626</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.06338010574905741</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>0.00366</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.00513</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.0497457627118644</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.06888</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.09668</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.0497457627118644</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.06888</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.09668</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>7.448</v>
+      </c>
+      <c r="G259" t="n">
+        <v>6.7794</v>
+      </c>
+      <c r="H259" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="I259" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>7.448</v>
+      </c>
+      <c r="M259" t="n">
+        <v>7.65015</v>
+      </c>
+      <c r="N259" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.0574406779661017</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.07782</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.10995</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.0574406779661017</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.07782</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.10995</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.124745762711864</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.2455</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.124745762711864</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.2455</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.0497118644067797</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.2054</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.04217</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.12872</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0497118644067797</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.2054</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.04217</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.12872</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
+++ b/state_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
@@ -570,13 +570,13 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99081831556715</v>
+        <v>2.1731072189851</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9.52908007010733</v>
       </c>
       <c r="I2" t="n">
-        <v>5.755</v>
+        <v>5.97</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>1.8</v>
       </c>
       <c r="M2" t="n">
-        <v>3.445</v>
+        <v>3.945</v>
       </c>
       <c r="N2" t="n">
-        <v>5.40603</v>
+        <v>5.758</v>
       </c>
       <c r="O2" t="n">
         <v>1850793</v>
@@ -1469,13 +1469,13 @@
         <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>2.29757126284706</v>
+        <v>2.67355501397997</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9.52908007010733</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>9.04426</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1483,10 +1483,10 @@
         <v>2.55</v>
       </c>
       <c r="M13" t="n">
-        <v>4.28912</v>
+        <v>5.5</v>
       </c>
       <c r="N13" t="n">
-        <v>5.49329</v>
+        <v>6.29214</v>
       </c>
       <c r="O13" t="n">
         <v>1850793</v>
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.78378</v>
+        <v>1.995</v>
       </c>
       <c r="G24" t="n">
-        <v>2.30306023081054</v>
+        <v>2.8246841257077</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>11.8385292137451</v>
       </c>
       <c r="I24" t="n">
-        <v>5.59</v>
+        <v>9.40231</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
         <v>2.55</v>
       </c>
       <c r="M24" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="N24" t="n">
-        <v>5.49776</v>
+        <v>6.30457</v>
       </c>
       <c r="O24" t="n">
         <v>1850793</v>
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>2.6763832458447</v>
+        <v>3.01693302024731</v>
       </c>
       <c r="H38" t="n">
-        <v>16.7164283657945</v>
+        <v>12.4952145824636</v>
       </c>
       <c r="I38" t="n">
-        <v>6.375</v>
+        <v>9.4838</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3524,10 +3524,10 @@
         <v>2.6</v>
       </c>
       <c r="M38" t="n">
-        <v>4.63432</v>
+        <v>5.545</v>
       </c>
       <c r="N38" t="n">
-        <v>5.82</v>
+        <v>6.9198</v>
       </c>
       <c r="O38" t="n">
         <v>1850793</v>
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.05</v>
+        <v>2.54191</v>
       </c>
       <c r="G58" t="n">
-        <v>2.92327703285689</v>
+        <v>3.15277377006721</v>
       </c>
       <c r="H58" t="n">
-        <v>16.7164283657945</v>
+        <v>12.4952145824636</v>
       </c>
       <c r="I58" t="n">
-        <v>6.47</v>
+        <v>9.07818</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5128,10 +5128,10 @@
         <v>3.2</v>
       </c>
       <c r="M58" t="n">
-        <v>5.19796</v>
+        <v>5.698</v>
       </c>
       <c r="N58" t="n">
-        <v>6.068</v>
+        <v>6.551</v>
       </c>
       <c r="O58" t="n">
         <v>1850793</v>
@@ -6792,27 +6792,27 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="G79" t="n">
-        <v>3.41704847403383</v>
+        <v>3.64549489907066</v>
       </c>
       <c r="H79" t="n">
-        <v>16.7164283657945</v>
+        <v>12.4952145824636</v>
       </c>
       <c r="I79" t="n">
-        <v>10.71</v>
+        <v>11.69348</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>4.42734</v>
+        <v>5.05</v>
       </c>
       <c r="M79" t="n">
-        <v>5.698</v>
+        <v>6.27312</v>
       </c>
       <c r="N79" t="n">
-        <v>6.837</v>
+        <v>9.943659999999999</v>
       </c>
       <c r="O79" t="n">
         <v>1850793</v>
@@ -8473,16 +8473,16 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G100" t="n">
-        <v>3.82320997653473</v>
+        <v>3.93817601336715</v>
       </c>
       <c r="H100" t="n">
-        <v>16.7164283657945</v>
+        <v>12.4952145824636</v>
       </c>
       <c r="I100" t="n">
-        <v>10.985</v>
+        <v>11.72645</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -8490,10 +8490,10 @@
         <v>4.6</v>
       </c>
       <c r="M100" t="n">
-        <v>6.2</v>
+        <v>6.449</v>
       </c>
       <c r="N100" t="n">
-        <v>7.872</v>
+        <v>9.766</v>
       </c>
       <c r="O100" t="n">
         <v>1850793</v>
@@ -10157,13 +10157,13 @@
         <v>3.1</v>
       </c>
       <c r="G121" t="n">
-        <v>3.89819059303496</v>
+        <v>3.79499256322337</v>
       </c>
       <c r="H121" t="n">
-        <v>16.7164283657945</v>
+        <v>12.4952145824636</v>
       </c>
       <c r="I121" t="n">
-        <v>11.17475</v>
+        <v>11.13297</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -11838,10 +11838,10 @@
         <v>2.85</v>
       </c>
       <c r="G142" t="n">
-        <v>3.3334356394358</v>
+        <v>3.3160296044892</v>
       </c>
       <c r="H142" t="n">
-        <v>12.5949106929184</v>
+        <v>11.7594210154817</v>
       </c>
       <c r="I142" t="n">
         <v>9.029999999999999</v>
@@ -13519,10 +13519,10 @@
         <v>2.45</v>
       </c>
       <c r="G163" t="n">
-        <v>3.10144059024843</v>
+        <v>3.08537348106695</v>
       </c>
       <c r="H163" t="n">
-        <v>12.5949106929184</v>
+        <v>11.7594210154817</v>
       </c>
       <c r="I163" t="n">
         <v>8.640000000000001</v>
@@ -16881,10 +16881,10 @@
         <v>1.9</v>
       </c>
       <c r="G205" t="n">
-        <v>2.50265670217961</v>
+        <v>2.50714443057123</v>
       </c>
       <c r="H205" t="n">
-        <v>8.66283510898066</v>
+        <v>8.88722152856128</v>
       </c>
       <c r="I205" t="n">
         <v>6.5</v>
@@ -18562,10 +18562,10 @@
         <v>1.8</v>
       </c>
       <c r="G226" t="n">
-        <v>2.37495581855063</v>
+        <v>2.37953513323594</v>
       </c>
       <c r="H226" t="n">
-        <v>8.66283510898066</v>
+        <v>8.88722152856128</v>
       </c>
       <c r="I226" t="n">
         <v>6.31</v>
@@ -20243,10 +20243,10 @@
         <v>1.675</v>
       </c>
       <c r="G247" t="n">
-        <v>2.23038771976045</v>
+        <v>2.23526568540351</v>
       </c>
       <c r="H247" t="n">
-        <v>8.66283510898066</v>
+        <v>8.88722152856128</v>
       </c>
       <c r="I247" t="n">
         <v>6.34</v>
